--- a/OpenXmlPrj/Templates/template.xlsx
+++ b/OpenXmlPrj/Templates/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
@@ -11,22 +11,16 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>Label:Count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>дата</t>
   </si>
   <si>
-    <t>Label:Date</t>
-  </si>
-  <si>
     <t>RMA No.</t>
   </si>
   <si>
@@ -36,20 +30,71 @@
     <t>p\n</t>
   </si>
   <si>
-    <t>DataField:AAA</t>
-  </si>
-  <si>
-    <t>DataField:BBB</t>
-  </si>
-  <si>
-    <t>DataField:CCC</t>
+    <t>{{Label.Count}}</t>
+  </si>
+  <si>
+    <t>{{Label.Date}}</t>
+  </si>
+  <si>
+    <t>DataField.CCC</t>
+  </si>
+  <si>
+    <t>DataField2.AAA</t>
+  </si>
+  <si>
+    <t>DataField2.BBB</t>
+  </si>
+  <si>
+    <t>DataField2.CCC</t>
+  </si>
+  <si>
+    <t>{{WellInfoTable.Name}}</t>
+  </si>
+  <si>
+    <t>{{WellInfoTable.Value}}</t>
+  </si>
+  <si>
+    <t>Суточный рапорт по бурению</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Рапорт №</t>
+  </si>
+  <si>
+    <t>Конструкция</t>
+  </si>
+  <si>
+    <t>{{ReportDate}}</t>
+  </si>
+  <si>
+    <t>{{ReportNumber}}</t>
+  </si>
+  <si>
+    <t>{{WellInfo.Name}}</t>
+  </si>
+  <si>
+    <t>{{WellInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{SvInfo.Name}}</t>
+  </si>
+  <si>
+    <t>{{SvInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{Сonstruction.Name}}</t>
+  </si>
+  <si>
+    <t>{{Сonstruction.Value}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +127,56 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +195,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -163,11 +274,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,6 +420,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,62 +774,206 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="24"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="Q6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="Q5:AA5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -550,12 +981,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/OpenXmlPrj/Templates/template.xlsx
+++ b/OpenXmlPrj/Templates/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>дата</t>
   </si>
@@ -72,22 +72,25 @@
     <t>{{ReportNumber}}</t>
   </si>
   <si>
+    <t>{{WellInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{SvInfo.Name}}</t>
+  </si>
+  <si>
+    <t>{{SvInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{Сonstruction.Name}}</t>
+  </si>
+  <si>
+    <t>{{Сonstruction.Value}}</t>
+  </si>
+  <si>
+    <t>{{WellInfo.Name:1}}</t>
+  </si>
+  <si>
     <t>{{WellInfo.Name}}</t>
-  </si>
-  <si>
-    <t>{{WellInfo.Value}}</t>
-  </si>
-  <si>
-    <t>{{SvInfo.Name}}</t>
-  </si>
-  <si>
-    <t>{{SvInfo.Value}}</t>
-  </si>
-  <si>
-    <t>{{Сonstruction.Name}}</t>
-  </si>
-  <si>
-    <t>{{Сonstruction.Value}}</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,66 +896,91 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
       <c r="H6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-      <c r="Q6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="Q7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -960,11 +988,11 @@
       <c r="I15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:I15"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:X7"/>
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
@@ -973,6 +1001,10 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OpenXmlPrj/Templates/template.xlsx
+++ b/OpenXmlPrj/Templates/template.xlsx
@@ -15,8 +15,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Обудить добавление колонки "Серийный номер и Производитель/собственик</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>дата</t>
   </si>
@@ -91,13 +127,235 @@
   </si>
   <si>
     <t>{{WellInfo.Name}}</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Ø ствола,мм</t>
+  </si>
+  <si>
+    <t>План, м</t>
+  </si>
+  <si>
+    <t>Факт, м</t>
+  </si>
+  <si>
+    <t>Забой на 24:00, м</t>
+  </si>
+  <si>
+    <t>Выполняемые работы на 24:00</t>
+  </si>
+  <si>
+    <t>Ремонт бурового насоса</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>Количество СТОП-КАРТ</t>
+  </si>
+  <si>
+    <t>НПВ за сутки, час</t>
+  </si>
+  <si>
+    <t>Накопительное НПВ, час</t>
+  </si>
+  <si>
+    <t>Количество проведенных тревог</t>
+  </si>
+  <si>
+    <t>Забой на 06:00, м</t>
+  </si>
+  <si>
+    <t>Выполняемые работы на 06:00</t>
+  </si>
+  <si>
+    <t>Последнее совещание по безопасности</t>
+  </si>
+  <si>
+    <t>Планируемые работы на сутки</t>
+  </si>
+  <si>
+    <t>Ремонт бурового насоса, промывка перед бурением, бурение в интервале 2500-3000м</t>
+  </si>
+  <si>
+    <t>Краткое описание происшествия</t>
+  </si>
+  <si>
+    <t>Наклонно-направленное бурение</t>
+  </si>
+  <si>
+    <t>КНБК и БТ</t>
+  </si>
+  <si>
+    <t>Траектория скважины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Внутр. Ø
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">мм </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Наруж. Ø
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>мм</t>
+    </r>
+  </si>
+  <si>
+    <t>Соединение</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Длина, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Длина накопл.,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Длина по стволу,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <t>Зенитный угол</t>
+  </si>
+  <si>
+    <t>Азимут</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Глубина по вертикали,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отход,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+  </si>
+  <si>
+    <t>Интенсивность,
+град/30м</t>
+  </si>
+  <si>
+    <t>Сравнение с плановой траекторией</t>
+  </si>
+  <si>
+    <t>Долото PDC XS613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Н88 Нипель</t>
+  </si>
+  <si>
+    <t>0,5м выше / 0,5м правее</t>
+  </si>
+  <si>
+    <t>ДРУ2-120РСФКТМ</t>
+  </si>
+  <si>
+    <t>Н102 Нипель / М 88 Муфта</t>
+  </si>
+  <si>
+    <t>{{Hse.NumStopCards}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +436,37 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -217,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -411,11 +700,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -435,35 +841,216 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,11 +1352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="S11" sqref="S11:AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,48 +1369,48 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="76"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
@@ -879,135 +1466,816 @@
       <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="H5" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="24"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="Q6" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="83"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16" t="s">
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="Q7" s="15" t="s">
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="Q7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16" t="s">
+      <c r="R7" s="85"/>
+      <c r="S7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="29"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="41"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="62">
+        <v>22</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="68">
+        <v>55</v>
+      </c>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="41"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="16"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="36"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="40"/>
+    </row>
+    <row r="23" spans="1:27" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="32"/>
+      <c r="T23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="26"/>
+      <c r="V23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="15">
+        <v>155.6</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="18">
+        <v>2500</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="18">
+        <v>76.5</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="18">
+        <v>213.5</v>
+      </c>
+      <c r="S24" s="19"/>
+      <c r="T24" s="18">
+        <v>2000</v>
+      </c>
+      <c r="U24" s="19"/>
+      <c r="V24" s="15">
+        <v>500</v>
+      </c>
+      <c r="W24" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="29"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="15">
+        <v>51</v>
+      </c>
+      <c r="F25" s="15">
+        <v>120</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="15">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="M25" s="15">
+        <v>8.82</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:X7"/>
+  <mergeCells count="80">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="W9:AA10"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:Q13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:AA13"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="H9:K10"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="R9:R19"/>
+    <mergeCell ref="S9:V10"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:K16"/>
+    <mergeCell ref="L15:Q16"/>
+    <mergeCell ref="S15:V16"/>
+    <mergeCell ref="W15:AA16"/>
+    <mergeCell ref="A21:AA21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="N22:AA22"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:Q19"/>
+    <mergeCell ref="S18:V19"/>
+    <mergeCell ref="W18:AA19"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
